--- a/data/trans_orig/P36BPD04_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD04_2023-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>23592</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>14455</v>
+        <v>15234</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>38634</v>
+        <v>41767</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03420965766793822</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02096089796221659</v>
+        <v>0.02209022523157786</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05602121029758979</v>
+        <v>0.06056496774352326</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>49</v>
@@ -762,19 +762,19 @@
         <v>33825</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>25186</v>
+        <v>24749</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>45059</v>
+        <v>44976</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.04625809577221186</v>
+        <v>0.04625809577221187</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03444375335873812</v>
+        <v>0.0338466668466986</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06162156075847702</v>
+        <v>0.0615080286088454</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>68</v>
@@ -783,19 +783,19 @@
         <v>57417</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>45266</v>
+        <v>43144</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>77343</v>
+        <v>74548</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04041023754504473</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03185857148908993</v>
+        <v>0.03036508476224358</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05443436058510138</v>
+        <v>0.05246737734288582</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>112963</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>92929</v>
+        <v>94521</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>134040</v>
+        <v>135435</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1638021023272163</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1347522775227469</v>
+        <v>0.1370608590385599</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1943652221523783</v>
+        <v>0.1963885666447646</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>143</v>
@@ -833,19 +833,19 @@
         <v>94479</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>80214</v>
+        <v>80677</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>110625</v>
+        <v>110644</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1292067388518145</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1096980230734059</v>
+        <v>0.1103308557233425</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1512868826994628</v>
+        <v>0.1513135783462296</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>259</v>
@@ -854,19 +854,19 @@
         <v>207441</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>183557</v>
+        <v>182633</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>234796</v>
+        <v>234772</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.1459980257531188</v>
+        <v>0.1459980257531187</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1291880784440113</v>
+        <v>0.1285380411661953</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1652501020656209</v>
+        <v>0.1652333047577829</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>376526</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>347432</v>
+        <v>347293</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>403410</v>
+        <v>404468</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5459836876274492</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5037965229983274</v>
+        <v>0.5035950875180224</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5849678394706079</v>
+        <v>0.5865019554864244</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>741</v>
@@ -904,19 +904,19 @@
         <v>428830</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>407602</v>
+        <v>405857</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>453080</v>
+        <v>449533</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.5864550532948097</v>
+        <v>0.5864550532948098</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.557423816633225</v>
+        <v>0.5550377038924781</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6196187524019137</v>
+        <v>0.6147682539434548</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1158</v>
@@ -925,19 +925,19 @@
         <v>805355</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>770661</v>
+        <v>769872</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>843254</v>
+        <v>843542</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.5668117761634266</v>
+        <v>0.5668117761634267</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5423942804360797</v>
+        <v>0.541838830462417</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5934855091714034</v>
+        <v>0.5936882166674869</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>176548</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>152533</v>
+        <v>150444</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>202982</v>
+        <v>202461</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2560045523773963</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2211808417648783</v>
+        <v>0.2181517830373797</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2943356524514055</v>
+        <v>0.2935800489943171</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>302</v>
@@ -975,19 +975,19 @@
         <v>174090</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>155169</v>
+        <v>155538</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>193693</v>
+        <v>193182</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.2380801120811639</v>
+        <v>0.238080112081164</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2122042235262195</v>
+        <v>0.2127093845559114</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2648887244548442</v>
+        <v>0.2641904821915532</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>479</v>
@@ -996,19 +996,19 @@
         <v>350638</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>319748</v>
+        <v>317709</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>384249</v>
+        <v>385375</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2467799605384099</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2250395521156832</v>
+        <v>0.2236048505214937</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2704356346802025</v>
+        <v>0.2712284624413183</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>46653</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>33158</v>
+        <v>34214</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>63447</v>
+        <v>65170</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.04447688420935682</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.03161175384759853</v>
+        <v>0.03261817831833839</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.06048830128065606</v>
+        <v>0.06213050894438728</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>44</v>
@@ -1121,19 +1121,19 @@
         <v>34068</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>23366</v>
+        <v>25742</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>44657</v>
+        <v>46464</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.03183080201061559</v>
+        <v>0.0318308020106156</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.02183172072829945</v>
+        <v>0.02405161490978134</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.0417241796929122</v>
+        <v>0.04341241431170097</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>83</v>
@@ -1142,19 +1142,19 @@
         <v>80721</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>63874</v>
+        <v>65428</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>100743</v>
+        <v>102731</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.03809006096111585</v>
+        <v>0.03809006096111583</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.03014064630269422</v>
+        <v>0.03087385499947724</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.04753810689016854</v>
+        <v>0.04847585430770208</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>161331</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>137400</v>
+        <v>138303</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>186996</v>
+        <v>192282</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1538074257915222</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1309919166490843</v>
+        <v>0.1318532530258516</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1782748609472933</v>
+        <v>0.183314965270182</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>182</v>
@@ -1192,19 +1192,19 @@
         <v>137806</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>118913</v>
+        <v>118333</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>160521</v>
+        <v>163004</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1287554337102709</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.111103356627314</v>
+        <v>0.1105609507287221</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1499779957345879</v>
+        <v>0.1522980398148518</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>333</v>
@@ -1213,19 +1213,19 @@
         <v>299137</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>267401</v>
+        <v>268311</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>333024</v>
+        <v>335093</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1411550767932521</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1261794599987874</v>
+        <v>0.1266089691082129</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1571451997209667</v>
+        <v>0.1581214223836401</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>627003</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>587329</v>
+        <v>590961</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>663769</v>
+        <v>658760</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5977625596326275</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5599388732064242</v>
+        <v>0.5634008274717414</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6328135919897736</v>
+        <v>0.6280383621978328</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>982</v>
@@ -1263,19 +1263,19 @@
         <v>687962</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>659102</v>
+        <v>658505</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>717786</v>
+        <v>716125</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.6427785633800907</v>
+        <v>0.6427785633800908</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6158137611089574</v>
+        <v>0.6152559910599623</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6706439795331083</v>
+        <v>0.6690918076902035</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1570</v>
@@ -1284,19 +1284,19 @@
         <v>1314965</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1267372</v>
+        <v>1265097</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1357353</v>
+        <v>1365204</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6204976055352881</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5980394956509962</v>
+        <v>0.5969661346939756</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6404990712384193</v>
+        <v>0.64420397821682</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>213930</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>184979</v>
+        <v>183893</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>247982</v>
+        <v>244418</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2039531303664935</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.176352755380569</v>
+        <v>0.1753173478693932</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2364169929927638</v>
+        <v>0.2330197490288305</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>307</v>
@@ -1334,19 +1334,19 @@
         <v>210457</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>188556</v>
+        <v>188276</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>235380</v>
+        <v>233773</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.1966352008990228</v>
+        <v>0.1966352008990229</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1761719713484172</v>
+        <v>0.1759102360145565</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.21992080126525</v>
+        <v>0.218419358574309</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>493</v>
@@ -1355,19 +1355,19 @@
         <v>424387</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>389625</v>
+        <v>388184</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>466710</v>
+        <v>464575</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.200257256710344</v>
+        <v>0.2002572567103439</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1838540051673449</v>
+        <v>0.1831740580617951</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2202283509080847</v>
+        <v>0.219220869242513</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>62825</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>47484</v>
+        <v>46169</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>84485</v>
+        <v>83046</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.07823060583407268</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.059127976197693</v>
+        <v>0.05749054648715605</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1052016171142227</v>
+        <v>0.1034098288388961</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>68</v>
@@ -1480,19 +1480,19 @@
         <v>63649</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>49420</v>
+        <v>48919</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>82635</v>
+        <v>81143</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.07836071183052042</v>
+        <v>0.0783607118305204</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.06084209283375733</v>
+        <v>0.06022629027014419</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1017342145383898</v>
+        <v>0.09989803089504323</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>117</v>
@@ -1501,19 +1501,19 @@
         <v>126474</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>105520</v>
+        <v>103402</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>154131</v>
+        <v>152122</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.07829602876055008</v>
+        <v>0.07829602876055007</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.06532416314172476</v>
+        <v>0.06401265944657997</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.09541731565784964</v>
+        <v>0.09417356511408355</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>159543</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>135075</v>
+        <v>134083</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>187952</v>
+        <v>188934</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.198665291866843</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1681974103171739</v>
+        <v>0.1669622039297064</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2340404006703403</v>
+        <v>0.2352638305047413</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>187</v>
@@ -1551,19 +1551,19 @@
         <v>144837</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>125692</v>
+        <v>126705</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>164608</v>
+        <v>167233</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.1783133776162644</v>
+        <v>0.1783133776162643</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1547431862961504</v>
+        <v>0.1559914353278696</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2026542826976581</v>
+        <v>0.2058866719020046</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>311</v>
@@ -1572,19 +1572,19 @@
         <v>304379</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>267118</v>
+        <v>275127</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>337645</v>
+        <v>342566</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1884314684763526</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1653640337249004</v>
+        <v>0.1703222943630524</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.209024912196707</v>
+        <v>0.2120714450451097</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>415943</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>383408</v>
+        <v>382469</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>446621</v>
+        <v>446874</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5179386272834009</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.477425751396548</v>
+        <v>0.4762567672558982</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5561400843502925</v>
+        <v>0.5564549019380199</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>582</v>
@@ -1622,19 +1622,19 @@
         <v>448548</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>420637</v>
+        <v>422758</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>474539</v>
+        <v>475260</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5522224876937063</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5178606998096397</v>
+        <v>0.5204722145653468</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5842217075646895</v>
+        <v>0.5851087355842681</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>943</v>
@@ -1643,19 +1643,19 @@
         <v>864490</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>820946</v>
+        <v>823572</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>908141</v>
+        <v>907639</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5351780362285969</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5082212704743181</v>
+        <v>0.5098471416210125</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5622010596648956</v>
+        <v>0.5618899403398555</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>164763</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>139853</v>
+        <v>139336</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>193022</v>
+        <v>191380</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.2051654750156834</v>
+        <v>0.2051654750156835</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1741475969316006</v>
+        <v>0.1735036288920394</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.240354584104735</v>
+        <v>0.2383095481759433</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>210</v>
@@ -1693,19 +1693,19 @@
         <v>155225</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>135033</v>
+        <v>135081</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>177170</v>
+        <v>177158</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.191103422859509</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1662443811093247</v>
+        <v>0.1663024555580235</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2181204204347233</v>
+        <v>0.2181057992926109</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>352</v>
@@ -1714,19 +1714,19 @@
         <v>319988</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>287954</v>
+        <v>286364</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>354180</v>
+        <v>351652</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1980944665345003</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1782632353614958</v>
+        <v>0.1772785693982536</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2192612861728048</v>
+        <v>0.2176967250632251</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>77172</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>58635</v>
+        <v>59388</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>99524</v>
+        <v>100679</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.07803437824314632</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05929015624341368</v>
+        <v>0.06005198216299074</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1006370167703189</v>
+        <v>0.1018045599477357</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>85</v>
@@ -1839,19 +1839,19 @@
         <v>69496</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>54814</v>
+        <v>55017</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>86586</v>
+        <v>86385</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06216641202106391</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04903324669798289</v>
+        <v>0.0492145387435881</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07745383505347363</v>
+        <v>0.07727453845341656</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>152</v>
@@ -1860,19 +1860,19 @@
         <v>146668</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>123971</v>
+        <v>124609</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>174707</v>
+        <v>175989</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.0696147682504006</v>
+        <v>0.06961476825040062</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05884189092889609</v>
+        <v>0.05914496189146298</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08292365561449527</v>
+        <v>0.08353202181564905</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>203810</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>179354</v>
+        <v>176753</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>234256</v>
+        <v>234983</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2060882441480725</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1813595132030583</v>
+        <v>0.178728692562592</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2368752110126693</v>
+        <v>0.2376099133780654</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>276</v>
@@ -1910,19 +1910,19 @@
         <v>196723</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>174664</v>
+        <v>173958</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>220937</v>
+        <v>220056</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.1759749469794583</v>
+        <v>0.1759749469794584</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1562432001271423</v>
+        <v>0.1556116532189084</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1976359098214032</v>
+        <v>0.1968477706420942</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>470</v>
@@ -1931,19 +1931,19 @@
         <v>400532</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>367108</v>
+        <v>368555</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>440561</v>
+        <v>442016</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.1901100013029027</v>
+        <v>0.1901100013029026</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1742451226973655</v>
+        <v>0.1749322031598509</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2091093546141101</v>
+        <v>0.209800085633757</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>535481</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>502933</v>
+        <v>501187</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>572560</v>
+        <v>567484</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.541467192362277</v>
+        <v>0.5414671923622771</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5085557968626229</v>
+        <v>0.5067903398729158</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5789608879600801</v>
+        <v>0.5738278753627478</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>868</v>
@@ -1981,19 +1981,19 @@
         <v>619179</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>590090</v>
+        <v>591712</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>648206</v>
+        <v>647156</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.5538765201668058</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.5278557547550563</v>
+        <v>0.5293066885673372</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5798421099918867</v>
+        <v>0.5789023549488203</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1435</v>
@@ -2002,19 +2002,19 @@
         <v>1154660</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1109898</v>
+        <v>1104871</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1199037</v>
+        <v>1196415</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.548051634181977</v>
+        <v>0.5480516341819772</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.5268056234879216</v>
+        <v>0.5244195543416209</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.5691147165459034</v>
+        <v>0.5678703681416388</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>172482</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>148399</v>
+        <v>149573</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>198959</v>
+        <v>199797</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.1744101852465041</v>
+        <v>0.1744101852465042</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1500575469907187</v>
+        <v>0.1512452879424093</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2011832634649677</v>
+        <v>0.2020308259083484</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>331</v>
@@ -2052,19 +2052,19 @@
         <v>232503</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>210495</v>
+        <v>209780</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>257437</v>
+        <v>256944</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.2079821208326719</v>
+        <v>0.207982120832672</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1882949883041417</v>
+        <v>0.1876549566450383</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.230285764279698</v>
+        <v>0.2298450717117014</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>508</v>
@@ -2073,19 +2073,19 @@
         <v>404986</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>373490</v>
+        <v>372377</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>440991</v>
+        <v>444556</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.1922235962647196</v>
+        <v>0.1922235962647197</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1772742767729133</v>
+        <v>0.1767463631930807</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2093132851197135</v>
+        <v>0.2110054413360724</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>210241</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>178377</v>
+        <v>180861</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>249076</v>
+        <v>244485</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.05954888380310611</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.05052360431200012</v>
+        <v>0.05122723274441507</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.07054853166590799</v>
+        <v>0.06924822219115705</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>246</v>
@@ -2198,19 +2198,19 @@
         <v>201038</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>177020</v>
+        <v>177162</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>227680</v>
+        <v>231877</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.05387346557640151</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.04743702837956455</v>
+        <v>0.04747509007900125</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.06101272857598706</v>
+        <v>0.06213752030153839</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>420</v>
@@ -2219,19 +2219,19 @@
         <v>411279</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>368547</v>
+        <v>371751</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>458627</v>
+        <v>456822</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.05663258917569537</v>
+        <v>0.05663258917569534</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.05074835228035508</v>
+        <v>0.0511895479810856</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.06315225267123173</v>
+        <v>0.06290378354532444</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>637646</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>587619</v>
+        <v>585815</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>693821</v>
+        <v>690217</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.1806075674698468</v>
+        <v>0.1806075674698469</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1664378759675764</v>
+        <v>0.1659269376608667</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1965186813171935</v>
+        <v>0.19549763682546</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>788</v>
@@ -2269,19 +2269,19 @@
         <v>573844</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>535671</v>
+        <v>530944</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>619517</v>
+        <v>613896</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1537765189517436</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1435470728593316</v>
+        <v>0.142280237198893</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1660155977477636</v>
+        <v>0.1645093519076098</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1373</v>
@@ -2290,19 +2290,19 @@
         <v>1211491</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1150368</v>
+        <v>1143680</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1274236</v>
+        <v>1270409</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1668205231471986</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1584040806034483</v>
+        <v>0.1574830864617994</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1754604708816578</v>
+        <v>0.1749335312503015</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>1954952</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1890184</v>
+        <v>1883899</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2023542</v>
+        <v>2016287</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5537226684073697</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.535377665954349</v>
+        <v>0.5335976142294423</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5731502010474938</v>
+        <v>0.571095154372121</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3173</v>
@@ -2340,19 +2340,19 @@
         <v>2184519</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2131277</v>
+        <v>2129686</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2239771</v>
+        <v>2238594</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.5853985434298558</v>
+        <v>0.5853985434298559</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5711310438976909</v>
+        <v>0.5707046040186717</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6002049056243645</v>
+        <v>0.5998892527591577</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5106</v>
@@ -2361,19 +2361,19 @@
         <v>4139471</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4051238</v>
+        <v>4052429</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>4219212</v>
+        <v>4223852</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.5699992105856981</v>
+        <v>0.569999210585698</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5578496131652443</v>
+        <v>0.5580136412661502</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5809794599806999</v>
+        <v>0.5816183679646354</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>727723</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>671318</v>
+        <v>675755</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>783417</v>
+        <v>785348</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2061208803196773</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.190144816986225</v>
+        <v>0.1914016541955485</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2218957362318749</v>
+        <v>0.222442671753713</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>1150</v>
@@ -2411,19 +2411,19 @@
         <v>772276</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>731846</v>
+        <v>729781</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>817742</v>
+        <v>811745</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2069514720419991</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1961171684420914</v>
+        <v>0.1955637911400777</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2191352933495407</v>
+        <v>0.2175282051608514</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1832</v>
@@ -2432,19 +2432,19 @@
         <v>1499999</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1433433</v>
+        <v>1438813</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1575715</v>
+        <v>1580721</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.206547677091408</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1973816821303135</v>
+        <v>0.198122545278084</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2169737425069609</v>
+        <v>0.2176630712269832</v>
       </c>
     </row>
     <row r="28">
